--- a/projects.xlsx
+++ b/projects.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">BudgetCode</t>
   </si>
   <si>
+    <t xml:space="preserve">PMU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Donor</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t xml:space="preserve">J00422</t>
   </si>
   <si>
+    <t xml:space="preserve">CCES</t>
+  </si>
+  <si>
     <t xml:space="preserve">NZ/MFAT</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
+    <t xml:space="preserve">GEP</t>
+  </si>
+  <si>
     <t xml:space="preserve">McGovern Foundation</t>
   </si>
   <si>
@@ -88,7 +97,7 @@
     <t xml:space="preserve">J00363</t>
   </si>
   <si>
-    <t xml:space="preserve">KIOST</t>
+    <t xml:space="preserve">PIFS/KIOST</t>
   </si>
   <si>
     <t xml:space="preserve">MACBLUE</t>
@@ -115,7 +124,10 @@
     <t xml:space="preserve">J00370</t>
   </si>
   <si>
-    <t xml:space="preserve">KI</t>
+    <t xml:space="preserve">PDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KI, PICT</t>
   </si>
   <si>
     <t xml:space="preserve">PCRAFI</t>
@@ -130,6 +142,9 @@
     <t xml:space="preserve">J00139</t>
   </si>
   <si>
+    <t xml:space="preserve">DCRP</t>
+  </si>
+  <si>
     <t xml:space="preserve">World Bank</t>
   </si>
   <si>
@@ -142,6 +157,9 @@
     <t xml:space="preserve">LRD Funding with Intent – Forest Management Model and Invasive Species Detection</t>
   </si>
   <si>
+    <t xml:space="preserve">LRD</t>
+  </si>
+  <si>
     <t xml:space="preserve">FJ, TO</t>
   </si>
   <si>
@@ -160,24 +178,23 @@
     <t xml:space="preserve">IRIS</t>
   </si>
   <si>
-    <t xml:space="preserve">infrastructure resilience geospatial databases to support exposure and hazard modelling</t>
+    <t xml:space="preserve">Infrastructure Resilience Geospatial Databases to support Exposure and Hazard modelling</t>
   </si>
   <si>
     <t xml:space="preserve">CDRI/RAF</t>
   </si>
   <si>
-    <t xml:space="preserve">KI TO, VU</t>
+    <t xml:space="preserve">KI, TO, VU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$$-C09]#,##0.00;[RED]\-[$$-C09]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -257,23 +274,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,278 +417,308 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="19.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>45811</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="1" t="n">
         <v>2000000</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>45657</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="1" t="n">
         <v>355000</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>45633</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="1" t="n">
         <v>700000</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>45838</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="1" t="n">
         <v>700000</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>27</v>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>45657</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="1" t="n">
         <v>436370</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>45473</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>45657</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="1" t="n">
         <v>109000</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>45473</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="1" t="n">
         <v>2822202</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>46</v>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>45928</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="1" t="n">
         <v>750000</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>48</v>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -136,49 +136,49 @@
     <t xml:space="preserve">Pacific Risk Information System</t>
   </si>
   <si>
+    <t xml:space="preserve">J00139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO, VU, SB, WS, CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRD Funding with Intent – Forest Management Model and Invasive Species Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJ, TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTNER2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazard Risk Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J00319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO, VU, SB, WS, CK, MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure Resilience Geospatial Databases to support Exposure and Hazard modelling</t>
+  </si>
+  <si>
     <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J00139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO, VU, SB, WS, CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRD Funding with Intent – Forest Management Model and Invasive Species Detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJ, TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARTNER2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazard Risk Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J00319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO, VU, SB, WS, CK, MH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Resilience Geospatial Databases to support Exposure and Hazard modelling</t>
   </si>
   <si>
     <t xml:space="preserve">CDRI/RAF</t>
@@ -191,10 +191,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$$-C09]#,##0.00;[RED]\-[$$-C09]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -269,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,6 +292,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,7 +425,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22:J22"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -473,7 +478,7 @@
       <c r="C2" s="4" t="n">
         <v>45811</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="5" t="n">
         <v>2000000</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -502,7 +507,7 @@
       <c r="C3" s="4" t="n">
         <v>45657</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="5" t="n">
         <v>355000</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -531,7 +536,7 @@
       <c r="C4" s="4" t="n">
         <v>45633</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="5" t="n">
         <v>700000</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -560,7 +565,7 @@
       <c r="C5" s="4" t="n">
         <v>45838</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="5" t="n">
         <v>700000</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -589,7 +594,7 @@
       <c r="C6" s="4" t="n">
         <v>45657</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="5" t="n">
         <v>436370</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -618,101 +623,101 @@
       <c r="C7" s="4" t="n">
         <v>45473</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>45657</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="5" t="n">
         <v>109000</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>45473</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="5" t="n">
         <v>2822202</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="6" t="n">
         <v>45928</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="5" t="n">
         <v>750000</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>53</v>
